--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -5,12 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="教科書分類テーブル" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="テーブル名_2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="会員テーブル" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="管理者テーブル" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="教科書テーブル" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="在庫テーブル" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="在庫テーブル_2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -54,7 +58,7 @@
     <t xml:space="preserve">分類コード</t>
   </si>
   <si>
-    <t xml:space="preserve">categoryID</t>
+    <t xml:space="preserve">category_id</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGER</t>
@@ -72,76 +76,169 @@
     <t xml:space="preserve">類目名</t>
   </si>
   <si>
-    <t xml:space="preserve">categoryName</t>
+    <t xml:space="preserve">category_name</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">items（商品テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商品ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">user(会員テーブル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id</t>
   </si>
   <si>
     <t xml:space="preserve"> auto increment</t>
   </si>
   <si>
+    <t xml:space="preserve">氏名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本語のみ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数字のみ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admission_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝現在の日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パスワード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英数字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin(会員テーブル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理者ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book(教科書)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBM番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book_number</t>
+  </si>
+  <si>
     <t xml:space="preserve">タイトル</t>
   </si>
   <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">価格</t>
+    <t xml:space="preserve">book_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">著者名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本売値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basisprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本買値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchaseprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock(在庫)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在庫ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto　increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">状態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中古か新品か未使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">売値</t>
   </si>
   <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve"> 価格 &gt;= 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出演者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">監督</t>
-  </si>
-  <si>
-    <t xml:space="preserve">directors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解説</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATETIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝現在の日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created</t>
+    <t xml:space="preserve">remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regist(登録)</t>
   </si>
 </sst>
 </file>
@@ -422,10 +519,10 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -533,13 +630,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -620,28 +717,30 @@
         <v>12</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>255</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -649,21 +748,23 @@
         <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>255</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>
@@ -671,22 +772,26 @@
       <c r="D7" s="6" t="n">
         <v>255</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
@@ -709,7 +814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -720,12 +825,27 @@
         <v>36</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
-        <v>37</v>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -747,13 +867,771 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>255</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>255</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>255</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -13,7 +13,7 @@
     <sheet name="管理者テーブル" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="教科書テーブル" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="在庫テーブル" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="在庫テーブル_2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="本登録テーブル" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="73">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t xml:space="preserve">regist(登録)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">買取年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchasesdate</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -633,10 +639,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -873,7 +879,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1107,10 +1113,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1293,7 +1299,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1459,10 +1465,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1549,24 +1555,20 @@
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>255</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1631,7 +1633,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -14,7 +14,7 @@
     <sheet name="教科書テーブル" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="在庫テーブル" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="本登録テーブル" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="本売上テーブル" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="76">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">入会年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">admission_date</t>
+    <t xml:space="preserve">admission_day</t>
   </si>
   <si>
     <t xml:space="preserve">DATETIME</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">退会年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">leave_date</t>
+    <t xml:space="preserve">leave_day</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード</t>
@@ -244,7 +244,16 @@
     <t xml:space="preserve">買取年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">purchasesdate</t>
+    <t xml:space="preserve">purchasesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price(売上)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">売上年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selesday</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -639,10 +648,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -876,10 +885,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1116,7 +1125,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1296,10 +1305,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1465,10 +1474,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1627,20 +1636,158 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="教科書分類テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="72">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -194,18 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本売値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basisprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本買値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purchaseprise</t>
   </si>
   <si>
     <t xml:space="preserve">stock(在庫)</t>
@@ -537,7 +525,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -651,7 +639,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -888,7 +876,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1122,10 +1110,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1246,40 +1234,8 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1305,10 +1261,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1320,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1353,10 +1309,10 @@
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -1369,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1395,10 +1351,10 @@
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -1411,15 +1367,15 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -1438,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>
@@ -1473,11 +1429,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1489,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1564,10 +1520,10 @@
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
@@ -1581,10 +1537,10 @@
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -1603,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>
@@ -1638,11 +1594,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1654,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1706,10 +1662,10 @@
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -1725,10 +1681,10 @@
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
@@ -1742,10 +1698,10 @@
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -1764,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>

--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -14,7 +14,7 @@
     <sheet name="教科書テーブル" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="在庫テーブル" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="本登録テーブル" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="本売上テーブル" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="本購入テーブル" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -229,13 +229,13 @@
     <t xml:space="preserve">regist(登録)</t>
   </si>
   <si>
-    <t xml:space="preserve">買取年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purchasesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price(売上)</t>
+    <t xml:space="preserve">登録年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regist_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy(購入)</t>
   </si>
   <si>
     <t xml:space="preserve">売上年月日</t>
@@ -521,11 +521,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -635,11 +635,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -872,11 +872,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1109,11 +1109,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1260,11 +1260,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1429,11 +1429,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1594,11 +1594,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>

--- a/テーブル設計書.xlsx
+++ b/テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="教科書分類テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">user(会員テーブル)</t>
+    <t xml:space="preserve">member(会員テーブル)</t>
   </si>
   <si>
     <t xml:space="preserve">会員ID</t>
@@ -525,7 +525,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -635,11 +635,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -876,7 +876,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1113,7 +1113,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1264,7 +1264,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1433,7 +1433,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -1594,11 +1594,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
